--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Spon2</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H2">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I2">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J2">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>0.16616284566</v>
+        <v>0.2116520547688889</v>
       </c>
       <c r="R2">
-        <v>1.49546561094</v>
+        <v>1.90486849292</v>
       </c>
       <c r="S2">
-        <v>0.0001733477070924838</v>
+        <v>0.0002374773791890917</v>
       </c>
       <c r="T2">
-        <v>0.0001733477070924837</v>
+        <v>0.0002374773791890916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H3">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I3">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J3">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>0.1393660641146666</v>
+        <v>0.1437942883822222</v>
       </c>
       <c r="R3">
-        <v>1.254294577032</v>
+        <v>1.29414859544</v>
       </c>
       <c r="S3">
-        <v>0.0001453922359407283</v>
+        <v>0.0001613397554049641</v>
       </c>
       <c r="T3">
-        <v>0.0001453922359407283</v>
+        <v>0.000161339755404964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H4">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I4">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J4">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>0.876125895372</v>
+        <v>0.4713789166066667</v>
       </c>
       <c r="R4">
-        <v>7.885133058347999</v>
+        <v>4.24241024946</v>
       </c>
       <c r="S4">
-        <v>0.0009140094735609472</v>
+        <v>0.0005288955490792577</v>
       </c>
       <c r="T4">
-        <v>0.0009140094735609469</v>
+        <v>0.0005288955490792576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H5">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I5">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J5">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>23.85896214763133</v>
+        <v>22.59917094483778</v>
       </c>
       <c r="R5">
-        <v>214.730659328682</v>
+        <v>203.39253850354</v>
       </c>
       <c r="S5">
-        <v>0.02489062079714899</v>
+        <v>0.02535667274143194</v>
       </c>
       <c r="T5">
-        <v>0.02489062079714898</v>
+        <v>0.02535667274143194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>47.284298</v>
       </c>
       <c r="I6">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J6">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>6.00368731706</v>
+        <v>7.411771681012888</v>
       </c>
       <c r="R6">
-        <v>54.03318585354</v>
+        <v>66.705945129116</v>
       </c>
       <c r="S6">
-        <v>0.006263286033522162</v>
+        <v>0.008316139977364365</v>
       </c>
       <c r="T6">
-        <v>0.006263286033522161</v>
+        <v>0.008316139977364365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>47.284298</v>
       </c>
       <c r="I7">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J7">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
-        <v>5.035483523590221</v>
+        <v>5.035483523590222</v>
       </c>
       <c r="R7">
-        <v>45.31935171231199</v>
+        <v>45.31935171231201</v>
       </c>
       <c r="S7">
-        <v>0.005253217224640215</v>
+        <v>0.00564990229571744</v>
       </c>
       <c r="T7">
-        <v>0.005253217224640215</v>
+        <v>0.005649902295717439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>47.284298</v>
       </c>
       <c r="I8">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J8">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>31.655608119252</v>
+        <v>16.50705876182867</v>
       </c>
       <c r="R8">
-        <v>284.900473073268</v>
+        <v>148.563528856458</v>
       </c>
       <c r="S8">
-        <v>0.03302439280149811</v>
+        <v>0.01852121425024606</v>
       </c>
       <c r="T8">
-        <v>0.0330243928014981</v>
+        <v>0.01852121425024606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>47.284298</v>
       </c>
       <c r="I9">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J9">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>862.0564234741624</v>
+        <v>791.3927195567159</v>
       </c>
       <c r="R9">
-        <v>7758.507811267462</v>
+        <v>7122.534476010443</v>
       </c>
       <c r="S9">
-        <v>0.8993316393928761</v>
+        <v>0.8879567418084997</v>
       </c>
       <c r="T9">
-        <v>0.899331639392876</v>
+        <v>0.8879567418084996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H10">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I10">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J10">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>0.19084695639</v>
+        <v>0.4244479078015555</v>
       </c>
       <c r="R10">
-        <v>1.71762260751</v>
+        <v>3.820031170214</v>
       </c>
       <c r="S10">
-        <v>0.0001990991557973162</v>
+        <v>0.0004762381204239692</v>
       </c>
       <c r="T10">
-        <v>0.0001990991557973161</v>
+        <v>0.0004762381204239691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H11">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I11">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J11">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>0.1600694129586667</v>
+        <v>0.2883656618608889</v>
       </c>
       <c r="R11">
-        <v>1.440624716628</v>
+        <v>2.595290956748</v>
       </c>
       <c r="S11">
-        <v>0.0001669907950950819</v>
+        <v>0.000323551414143501</v>
       </c>
       <c r="T11">
-        <v>0.0001669907950950818</v>
+        <v>0.0003235514141435008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H12">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I12">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J12">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>1.006277666238</v>
+        <v>0.9453052329396666</v>
       </c>
       <c r="R12">
-        <v>9.056498996141999</v>
+        <v>8.507747096456999</v>
       </c>
       <c r="S12">
-        <v>0.001049788991322773</v>
+        <v>0.001060649326071385</v>
       </c>
       <c r="T12">
-        <v>0.001049788991322772</v>
+        <v>0.001060649326071385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9026056666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.707817</v>
+      </c>
+      <c r="I13">
+        <v>0.05271081546417152</v>
+      </c>
+      <c r="J13">
+        <v>0.05271081546417151</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>50.21070966666667</v>
+      </c>
+      <c r="N13">
+        <v>150.632129</v>
+      </c>
+      <c r="O13">
+        <v>0.9647047983557866</v>
+      </c>
+      <c r="P13">
+        <v>0.9647047983557866</v>
+      </c>
+      <c r="Q13">
+        <v>45.32047107248812</v>
+      </c>
+      <c r="R13">
+        <v>407.884239652393</v>
+      </c>
+      <c r="S13">
+        <v>0.05085037660353266</v>
+      </c>
+      <c r="T13">
+        <v>0.05085037660353265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5010290000000001</v>
-      </c>
-      <c r="H13">
-        <v>1.503087</v>
-      </c>
-      <c r="I13">
-        <v>0.0300040943337204</v>
-      </c>
-      <c r="J13">
-        <v>0.0300040943337204</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>54.69403966666667</v>
-      </c>
-      <c r="N13">
-        <v>164.082119</v>
-      </c>
-      <c r="O13">
-        <v>0.9528104755815302</v>
-      </c>
-      <c r="P13">
-        <v>0.9528104755815302</v>
-      </c>
-      <c r="Q13">
-        <v>27.40330000015034</v>
-      </c>
-      <c r="R13">
-        <v>246.629700001353</v>
-      </c>
-      <c r="S13">
-        <v>0.02858821539150523</v>
-      </c>
-      <c r="T13">
-        <v>0.02858821539150523</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.009603</v>
+      </c>
+      <c r="H14">
+        <v>0.028809</v>
+      </c>
+      <c r="I14">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J14">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4702473333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.410742</v>
+      </c>
+      <c r="O14">
+        <v>0.009034922268422819</v>
+      </c>
+      <c r="P14">
+        <v>0.009034922268422819</v>
+      </c>
+      <c r="Q14">
+        <v>0.004515785142</v>
+      </c>
+      <c r="R14">
+        <v>0.040642066278</v>
+      </c>
+      <c r="S14">
+        <v>5.066791445394621E-06</v>
+      </c>
+      <c r="T14">
+        <v>5.06679144539462E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.009603</v>
+      </c>
+      <c r="H15">
+        <v>0.028809</v>
+      </c>
+      <c r="I15">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J15">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.006138235792679485</v>
+      </c>
+      <c r="P15">
+        <v>0.006138235792679485</v>
+      </c>
+      <c r="Q15">
+        <v>0.003067979244</v>
+      </c>
+      <c r="R15">
+        <v>0.027611813196</v>
+      </c>
+      <c r="S15">
+        <v>3.442327413580799E-06</v>
+      </c>
+      <c r="T15">
+        <v>3.442327413580799E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.009603</v>
+      </c>
+      <c r="H16">
+        <v>0.028809</v>
+      </c>
+      <c r="I16">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J16">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.047307</v>
+      </c>
+      <c r="N16">
+        <v>3.141921</v>
+      </c>
+      <c r="O16">
+        <v>0.02012204358311108</v>
+      </c>
+      <c r="P16">
+        <v>0.02012204358311108</v>
+      </c>
+      <c r="Q16">
+        <v>0.010057289121</v>
+      </c>
+      <c r="R16">
+        <v>0.090515602089</v>
+      </c>
+      <c r="S16">
+        <v>1.128445771438414E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.128445771438414E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.009603</v>
+      </c>
+      <c r="H17">
+        <v>0.028809</v>
+      </c>
+      <c r="I17">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J17">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>50.21070966666667</v>
+      </c>
+      <c r="N17">
+        <v>150.632129</v>
+      </c>
+      <c r="O17">
+        <v>0.9647047983557866</v>
+      </c>
+      <c r="P17">
+        <v>0.9647047983557866</v>
+      </c>
+      <c r="Q17">
+        <v>0.4821734449290001</v>
+      </c>
+      <c r="R17">
+        <v>4.339561004361001</v>
+      </c>
+      <c r="S17">
+        <v>0.0005410072023224511</v>
+      </c>
+      <c r="T17">
+        <v>0.000541007202322451</v>
       </c>
     </row>
   </sheetData>
